--- a/설문조사 정리.xlsx
+++ b/설문조사 정리.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="240">
+  <si>
+    <t>게임 장르</t>
+  </si>
   <si>
     <t>prefer num</t>
   </si>
@@ -1017,823 +1020,825 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2">
         <v>33.0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2">
         <v>11.0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2">
         <v>17.0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2">
         <v>24.0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" s="2">
         <v>11.0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B7" s="2">
         <v>5.0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B8" s="2">
         <v>16.0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B9" s="2">
         <v>21.0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B10" s="2">
         <v>7.0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B11" s="2">
         <v>21.0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B12" s="2">
         <v>13.0</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B13" s="2">
         <v>4.0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B14" s="2">
         <v>1.0</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O14" s="5"/>
       <c r="Q14" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B15" s="2">
         <v>1.0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24">

--- a/설문조사 정리.xlsx
+++ b/설문조사 정리.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="240">
   <si>
-    <t>게임 장르</t>
+    <t xml:space="preserve">game </t>
   </si>
   <si>
     <t>prefer num</t>

--- a/설문조사 정리.xlsx
+++ b/설문조사 정리.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="240">
   <si>
     <t xml:space="preserve">game </t>
   </si>
@@ -1020,829 +1020,859 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>33.0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>11.0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>17.0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>24.0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="X5" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>11.0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="U6" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>5.0</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="T7" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="U7" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="V7" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="X7" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>16.0</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="2">
         <v>21.0</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="2">
         <v>7.0</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="2">
         <v>21.0</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="2">
         <v>13.0</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="Q12" s="4" t="s">
+      <c r="R12" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="V12" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="2">
         <v>4.0</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="V13" s="4" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C14" s="2">
         <v>1.0</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="Q14" s="4" t="s">
+      <c r="P14" s="5"/>
+      <c r="R14" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="V14" s="4" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="2">
         <v>1.0</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="R15" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="V15" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="16">
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="R16" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="U16" s="4" t="s">
+      <c r="V16" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="17">
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="R17" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="V17" s="4" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="18">
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="Q18" s="4" t="s">
+      <c r="R18" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="19">
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="R19" s="4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="20">
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="R20" s="4" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="21">
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="R21" s="4" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="22">
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="23">
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="24">
-      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="40">
+      <c r="G40" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="G41" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="G42" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/설문조사 정리.xlsx
+++ b/설문조사 정리.xlsx
@@ -532,7 +532,7 @@
     <t>기본적으로 할게 많아 좋습니다</t>
   </si>
   <si>
-    <t>모험을 떠나는 것이 제미있음</t>
+    <t>모험을 떠나는 것이 재미있음</t>
   </si>
   <si>
     <t>캐릭터 쎄지면 기분 좋음</t>
@@ -1018,6 +1018,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="8" max="8" width="24.38"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1"/>

--- a/설문조사 정리.xlsx
+++ b/설문조사 정리.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="240">
   <si>
     <t xml:space="preserve">game </t>
   </si>
@@ -109,7 +109,7 @@
     <t>내기 직접 모험을 게임속에서 라도 떠날수 있다는 점이 가장 큰 매력이자 할수있는 이유라고 생각</t>
   </si>
   <si>
-    <t>다만 어려운 파트에서 시간을 많이 투자해야 한다는 점이 아쉬움</t>
+    <t>어려운 파트에서 시간을 많이 투자해야 한다는 점이 아쉬움</t>
   </si>
   <si>
     <t>내가 원하는 대로 성장 시킬수 있어서 좋다.</t>
@@ -124,7 +124,7 @@
     <t>소리를 못들으면 긴장감이 줄어듦</t>
   </si>
   <si>
-    <t>컨트롤재밋다</t>
+    <t>컨트롤 재밌다</t>
   </si>
   <si>
     <t>머리 쓰는게 머리가 아픔</t>
@@ -181,7 +181,7 @@
     <t>잘 질린다.</t>
   </si>
   <si>
-    <t>스토리가 좋은 게임을 좋아하는데, 어드벤처가 그나마 스토리도 좋고 플레이어가 캐릭터를 움직이거나 문제를 해결하는 식으로 게임이 진행되기 때문에 오래할 수 있음. 다만 어려운 파트에서 시간을 많이 투자해야 한다는 점이 아쉬움</t>
+    <t>스토리가 좋은 게임을 좋아하는데, 어드벤처가 그나마 스토리도 좋고 플레이어가 캐릭터를 움직이거나 문제를 해결하는 식으로 게임이 진행되기 때문에 오래할 수 있음.</t>
   </si>
   <si>
     <t>피로도</t>
@@ -214,7 +214,7 @@
     <t>꾸준히 해야 게임 계정이 성장할 수 있는 점, 그리고 RPG 게임보다 사용자의 개입이 있고, 주로 두뇌를 써야되는 (몇 수를 보고 게임을 해야하는것) 게임이 많음. 두뇌를 써야 하는 게임이기 때문에 게임에 질때, 스트레스를 유발할 수 있음</t>
   </si>
   <si>
-    <t>피지칼싸움이 재밌음</t>
+    <t>피지컬 싸움이 재밌음</t>
   </si>
   <si>
     <t>불편한점은 조작법이 어려움</t>
@@ -355,7 +355,7 @@
     <t>호러 계열</t>
   </si>
   <si>
-    <t>1인칭 시점으로 플레이 하기 때문에 생동감을 느낄 수 있음. 특히 총으로 상대팀응 조준해서 죽일 때 가장 재미있음.</t>
+    <t>1인칭 시점으로 플레이 하기 때문에 생동감을 느낄 수 있음. 특히 총으로 상대팀을 조준해서 죽일 때 가장 재미있음.</t>
   </si>
   <si>
     <t>기기 성능에 따른 렉</t>
@@ -385,10 +385,10 @@
     <t>불편한 점은 팀이 못하면 져야한다는 거 정도?</t>
   </si>
   <si>
-    <t>시간이 남을때 시간때우기 좋음 게임. 꾸준히 해야 게임 계정이 성장할 수 있는 점, 그리고 RPG 게임보다 사용자의 개입이 있고, 주로 두뇌를 써야되는 (몇 수를 보고 게임을 해야하는것) 게임이 많음. 두뇌를 써야 하는 게임이기 때문에 게임에 질때, 스트레스를 유발할 수 있음</t>
-  </si>
-  <si>
-    <t>이것도 역시나 상대와의 경재을 통해서 나의 실력을 발휘하는 것이 좋앗다.</t>
+    <t xml:space="preserve">시간이 남을때 시간때우기 좋음 게임. 꾸준히 해야 게임 계정이 성장할 수 있는 점, 그리고 RPG 게임보다 사용자의 개입이 있고, 주로 두뇌를 써야되는 (몇 수를 보고 게임을 해야하는것) 게임이 많음. </t>
+  </si>
+  <si>
+    <t>두뇌를 써야 하는 게임이기 때문에 게임에 질때, 스트레스를 유발할 수 있음</t>
   </si>
   <si>
     <t>고인물에게 무력하게 당하는 일이 많음</t>
@@ -424,7 +424,7 @@
     <t>무서운게 기분을 좋게만들어서</t>
   </si>
   <si>
-    <t>매 게임마다 수많은 변수들이 생기며 예상치 못함 문제나 사건들을 대응하는 것이 재밌음</t>
+    <t>매 게임마다 수많은 변수들이 생기며 예상치 못한 문제나 사건들을 대응하는 것이 재밌음</t>
   </si>
   <si>
     <t>트롤이 많아서 고통스러웠다.</t>
@@ -442,7 +442,7 @@
     <t>하기 쉬워서</t>
   </si>
   <si>
-    <t>실제 플레이하는 것도 재미있고, 스스로의 팀을 꾸려나가는 재미를 많이 준다. 특히 fc 모바일 샅은 게임의 경우 실제 선수들을 기잔으로 하다보니 좋아하는 선수를 영입했을 때의 성취감이 더욱 크다.</t>
+    <t>실제 플레이하는 것도 재미있고, 스스로의 팀을 꾸려나가는 재미를 많이 준다. 특히 fc 모바일 같은 게임의 경우 실제 선수들을 기반으로 하다보니 좋아하는 선수를 영입했을 때의 성취감이 더욱 크다.</t>
   </si>
   <si>
     <t>AOS</t>
@@ -523,7 +523,7 @@
     <t>대전 격투</t>
   </si>
   <si>
-    <t>스트레스가 풀려서 좋아용</t>
+    <t>스트레스가 풀려서 좋아요</t>
   </si>
   <si>
     <t>슈팅할 때 조작버튼이 어려워서 불편했다</t>
@@ -535,7 +535,7 @@
     <t>모험을 떠나는 것이 재미있음</t>
   </si>
   <si>
-    <t>캐릭터 쎄지면 기분 좋음</t>
+    <t>캐릭터 세지면 기분 좋음</t>
   </si>
   <si>
     <t>근본의 맛이 있다.</t>
@@ -553,7 +553,7 @@
     <t>시뮬레이션 계열</t>
   </si>
   <si>
-    <t>재밋다</t>
+    <t>재밌다</t>
   </si>
   <si>
     <t>불편한 점은 인터넷이 안좋아 렉이 좀 걸리는거 말고는 딱히 없다.</t>
@@ -580,7 +580,7 @@
     <t>스포츠</t>
   </si>
   <si>
-    <t>그냥 해보고 싶은 마음에 했는데 재미있어서 좋아하게됬고</t>
+    <t>그냥 해보고 싶은 마음에 했는데 재미있어서 좋아하게 됐고</t>
   </si>
   <si>
     <t>총마다의 성능 차이로 불편함을 느꼈다. (총기 밸런스 문제)</t>
@@ -628,7 +628,7 @@
     <t>테이블탑</t>
   </si>
   <si>
-    <t>총쏘기 시원하고 재밌기때문입니다</t>
+    <t>총쏘기 시원하고 재밌게 때문입니다</t>
   </si>
   <si>
     <t>와이파이가 끊겨서</t>
@@ -640,7 +640,7 @@
     <t>그래픽과 스토리가 좋아서</t>
   </si>
   <si>
-    <t>업데이트 할 때마다 재밌는 버전으로 나와서 재밌구</t>
+    <t>업데이트 할 때마다 재밌는 버전으로 나와서 재밌고</t>
   </si>
   <si>
     <t>마음대로 조종할 수 있고 힐링이 되기 때문이다.</t>
@@ -661,7 +661,7 @@
     <t>Mmorpg게임 상에서 유저들과 게임하는 게 재밌다</t>
   </si>
   <si>
-    <t>다음 업데이트를 예측할 수 없어서 더 재밌게 하는거 같아여</t>
+    <t>다음 업데이트를 예측할 수 없어서 더 재밌게 하는거 같아요</t>
   </si>
   <si>
     <t>키워 나가는게 재밌음</t>
@@ -682,13 +682,13 @@
     <t>직접 생생하게 생존하거나 경영하는 것, 그러면서 원하는 대로 꾸밀 수 있는(프리히스토릭 킹덤) 재미가 있었다.</t>
   </si>
   <si>
-    <t>타격감잇다</t>
+    <t>타격감 있다</t>
   </si>
   <si>
     <t>멀티플레이를 통해 친구와 소통하며 플레이, 나만의 공간을 통한 안정감</t>
   </si>
   <si>
-    <t>어린나이에 게임을 시작햇고 배틀그라운드 게임이 제일 쉽다고 느껴짐</t>
+    <t>어린나이에 게임을 시작했고 배틀그라운드 게임이 제일 쉽다고 느껴짐</t>
   </si>
   <si>
     <t>커스터마이징이 자유로운 것</t>
@@ -1019,7 +1019,29 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="8" max="8" width="24.38"/>
+    <col customWidth="1" min="4" max="4" width="105.88"/>
+    <col customWidth="1" min="5" max="6" width="62.13"/>
+    <col customWidth="1" min="7" max="7" width="29.25"/>
+    <col customWidth="1" min="8" max="8" width="150.25"/>
+    <col customWidth="1" min="9" max="9" width="76.13"/>
+    <col customWidth="1" min="10" max="10" width="103.5"/>
+    <col customWidth="1" min="11" max="11" width="55.63"/>
+    <col customWidth="1" min="12" max="12" width="95.38"/>
+    <col customWidth="1" min="13" max="13" width="32.25"/>
+    <col customWidth="1" min="14" max="14" width="63.5"/>
+    <col customWidth="1" min="15" max="15" width="28.25"/>
+    <col customWidth="1" min="16" max="16" width="121.25"/>
+    <col customWidth="1" min="17" max="17" width="111.38"/>
+    <col customWidth="1" min="18" max="18" width="177.0"/>
+    <col customWidth="1" min="19" max="19" width="114.88"/>
+    <col customWidth="1" min="20" max="20" width="104.75"/>
+    <col customWidth="1" min="21" max="21" width="53.25"/>
+    <col customWidth="1" min="22" max="22" width="98.88"/>
+    <col customWidth="1" min="23" max="23" width="51.13"/>
+    <col customWidth="1" min="24" max="24" width="168.25"/>
+    <col customWidth="1" min="25" max="25" width="54.0"/>
+    <col customWidth="1" min="26" max="26" width="34.0"/>
+    <col customWidth="1" min="27" max="27" width="57.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1436,8 +1458,11 @@
       <c r="R6" s="4" t="s">
         <v>124</v>
       </c>
+      <c r="S6" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="T6" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="U6" s="4" t="s">
         <v>126</v>

--- a/설문조사 정리.xlsx
+++ b/설문조사 정리.xlsx
@@ -115,7 +115,7 @@
     <t>내가 원하는 대로 성장 시킬수 있어서 좋다.</t>
   </si>
   <si>
-    <t>캐릭터간 발란스가 안맞을시 상당히 마음이 아프다.</t>
+    <t>캐릭터간 벨런스가 안맞을시 상당히 마음이 아프다.</t>
   </si>
   <si>
     <t>점프 스케어를 좋아한다.</t>

--- a/설문조사 정리.xlsx
+++ b/설문조사 정리.xlsx
@@ -163,7 +163,7 @@
     <t>노래가 좋음</t>
   </si>
   <si>
-    <t>기기 음악 속도나 싱크로를 본인에 맞게 보정하는 직업이 힘들다.</t>
+    <t>기기 음악 속도나 싱크로를 본인에 맞게 보정하는 작업이 힘들다.</t>
   </si>
   <si>
     <t>플랫포머</t>
@@ -340,7 +340,7 @@
     <t>와이파이가 좋아도 가끔 렉이 걸려서 불편함.</t>
   </si>
   <si>
-    <t>핵등 불법프로그램을 이용하는 사람들이 꾀 많아 불편했다.</t>
+    <t>핵 등 불법프로그램을 이용하는 사람들이 꾀 많아 불편했다.</t>
   </si>
   <si>
     <t>노가다가 재미있다</t>
